--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A935B-654B-4585-BC94-E61EF3A17B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28491E4-74A4-4775-B55D-C9B07910FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans Tables" sheetId="17" r:id="rId1"/>
     <sheet name="FILL Table" sheetId="19" r:id="rId2"/>
+    <sheet name="k" sheetId="20" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -286,8 +300,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -307,8 +322,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{60F63E85-D8D6-4E98-B90E-DD394ED4EC32}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,36 +630,36 @@
   <dimension ref="B3:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +672,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="E7" s="8"/>
@@ -713,7 +729,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
@@ -726,7 +742,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
@@ -787,29 +803,29 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
@@ -850,4 +866,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF8E0C8-28B2-4DAB-9776-EBB86ED26E9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28491E4-74A4-4775-B55D-C9B07910FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E63B28-9F1D-47D3-BA2D-C32D069D578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans Tables" sheetId="17" r:id="rId1"/>
     <sheet name="FILL Table" sheetId="19" r:id="rId2"/>
-    <sheet name="k" sheetId="20" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -866,18 +865,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF8E0C8-28B2-4DAB-9776-EBB86ED26E9E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>